--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_14.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_10_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-335183.5130369542</v>
+        <v>-337796.7993026287</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12383593.4843585</v>
+        <v>12383593.48435851</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -662,22 +662,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>131.7324294083151</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>222.3060747951833</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>198.8464320848294</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,25 +817,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -871,19 +871,19 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>94.9018342784312</v>
       </c>
       <c r="W4" t="n">
-        <v>102.6818455506203</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -896,22 +896,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>362.7738039411662</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>82.72498619532669</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,16 +1051,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>91.30490610571258</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>31.83805929471604</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -1105,7 +1105,7 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,13 +1114,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>232.6485930822963</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247047</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>62.49494887582479</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1199,7 +1199,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,28 +1288,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551288</v>
+        <v>110.4254304669544</v>
       </c>
       <c r="I10" t="n">
-        <v>27.55354930921938</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1351,13 +1351,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819388</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1537,10 +1537,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>31.83025205763852</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>193.9962538432415</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1670,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>96.78074638267616</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1783,7 +1783,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>63.34420421319481</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1901,7 +1901,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922704</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>33.55293486399734</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>136.2892803597702</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>125.2851635392052</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695524</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,7 +2476,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>134.494086169493</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -2488,10 +2488,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2533,7 +2533,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2542,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>173.1378795275017</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2621,7 +2621,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2719,7 +2719,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>67.00771475394289</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2731,7 +2731,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>154.0489950679129</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2956,16 +2956,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,19 +2995,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>184.6527153981522</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>172.1249649038643</v>
       </c>
     </row>
     <row r="32">
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>48.34531439065386</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3427,13 +3427,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.0635245304607</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3442,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,10 +3484,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>1.799772605716619</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3715,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>73.44478684180565</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3727,7 +3727,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3901,10 +3901,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261726</v>
+        <v>124.330825526173</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,31 +4304,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1467.671350819693</v>
+        <v>1110.088185601309</v>
       </c>
       <c r="C2" t="n">
-        <v>1098.708833879281</v>
+        <v>741.1256686608974</v>
       </c>
       <c r="D2" t="n">
-        <v>965.6457738708824</v>
+        <v>741.1256686608974</v>
       </c>
       <c r="E2" t="n">
-        <v>579.8575212726382</v>
+        <v>741.1256686608974</v>
       </c>
       <c r="F2" t="n">
-        <v>579.8575212726382</v>
+        <v>734.180167911694</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>318.4754176359828</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
         <v>442.5171852816084</v>
@@ -4355,25 +4355,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2562.339328400155</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V2" t="n">
-        <v>2231.276441056585</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W2" t="n">
-        <v>2231.276441056585</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="X2" t="n">
-        <v>1857.810682795505</v>
+        <v>1500.227517577121</v>
       </c>
       <c r="Y2" t="n">
-        <v>1467.671350819693</v>
+        <v>1110.088185601309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4410,22 +4410,22 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>684.9695361605189</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L3" t="n">
-        <v>979.6730931919907</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M3" t="n">
-        <v>1480.485115687205</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N3" t="n">
-        <v>1867.770244284151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O3" t="n">
-        <v>2199.840679460312</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4440,16 +4440,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>535.0593816855418</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="C4" t="n">
-        <v>366.1231987576349</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="D4" t="n">
-        <v>366.1231987576349</v>
+        <v>453.7539249574967</v>
       </c>
       <c r="E4" t="n">
-        <v>366.1231987576349</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="F4" t="n">
-        <v>219.2332512597245</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>157.1019332386098</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
@@ -4510,28 +4510,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1337.233965749941</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T4" t="n">
-        <v>1114.255484944676</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U4" t="n">
-        <v>1114.255484944676</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V4" t="n">
-        <v>859.5709967387894</v>
+        <v>831.8601152678498</v>
       </c>
       <c r="W4" t="n">
-        <v>755.8519608290719</v>
+        <v>831.8601152678498</v>
       </c>
       <c r="X4" t="n">
-        <v>755.8519608290719</v>
+        <v>603.8705643698324</v>
       </c>
       <c r="Y4" t="n">
-        <v>535.0593816855418</v>
+        <v>603.8705643698324</v>
       </c>
     </row>
     <row r="5">
@@ -4541,37 +4541,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>880.6454412161675</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="C5" t="n">
-        <v>511.6829242757557</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="D5" t="n">
-        <v>153.4172256690052</v>
+        <v>1144.394367394505</v>
       </c>
       <c r="E5" t="n">
-        <v>153.4172256690052</v>
+        <v>777.9561815953474</v>
       </c>
       <c r="F5" t="n">
-        <v>146.4717249198018</v>
+        <v>366.9702768057398</v>
       </c>
       <c r="G5" t="n">
-        <v>134.8073786844947</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362822</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816088</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L5" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4592,25 +4592,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
         <v>2228.89447953245</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.31341879663</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V5" t="n">
-        <v>1644.250531453059</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="W5" t="n">
-        <v>1644.250531453059</v>
+        <v>1876.125824262336</v>
       </c>
       <c r="X5" t="n">
-        <v>1270.784773191979</v>
+        <v>1502.660066001256</v>
       </c>
       <c r="Y5" t="n">
-        <v>880.6454412161675</v>
+        <v>1502.660066001256</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4620,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G6" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>458.7060632252734</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L6" t="n">
-        <v>1092.885047004312</v>
+        <v>979.6730931919905</v>
       </c>
       <c r="M6" t="n">
-        <v>1456.147065963532</v>
+        <v>1342.93511215121</v>
       </c>
       <c r="N6" t="n">
-        <v>1843.432194560477</v>
+        <v>1730.220240748155</v>
       </c>
       <c r="O6" t="n">
-        <v>2175.502629736639</v>
+        <v>2062.290675924317</v>
       </c>
       <c r="P6" t="n">
-        <v>2422.685363568936</v>
+        <v>2309.473409756614</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>641.9376744406312</v>
+        <v>674.9231348479804</v>
       </c>
       <c r="C7" t="n">
-        <v>473.0014915127243</v>
+        <v>505.9869519200735</v>
       </c>
       <c r="D7" t="n">
-        <v>473.0014915127243</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="E7" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="F7" t="n">
-        <v>325.0883979303312</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H7" t="n">
         <v>157.1019332386098</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
@@ -4753,22 +4753,22 @@
         <v>1439.817372234358</v>
       </c>
       <c r="T7" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="U7" t="n">
-        <v>1216.838891429094</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="V7" t="n">
-        <v>962.1544032232067</v>
+        <v>1185.132884028471</v>
       </c>
       <c r="W7" t="n">
-        <v>962.1544032232067</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="X7" t="n">
-        <v>734.1648523251894</v>
+        <v>895.7157139915105</v>
       </c>
       <c r="Y7" t="n">
-        <v>734.1648523251894</v>
+        <v>674.9231348479804</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>768.3237648788322</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="C8" t="n">
-        <v>768.3237648788322</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="D8" t="n">
-        <v>768.3237648788322</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="E8" t="n">
-        <v>768.3237648788322</v>
+        <v>1248.370234799863</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078258</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
         <v>117.6204357321147</v>
@@ -4802,16 +4802,16 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362819</v>
+        <v>187.528182236282</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087291</v>
+        <v>795.7553530872914</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923561</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926626</v>
+        <v>2499.213117414474</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.894479532451</v>
+        <v>2290.467476020298</v>
       </c>
       <c r="U8" t="n">
-        <v>2228.894479532451</v>
+        <v>2290.467476020298</v>
       </c>
       <c r="V8" t="n">
-        <v>1897.83159218888</v>
+        <v>1959.404588676728</v>
       </c>
       <c r="W8" t="n">
-        <v>1545.062936918766</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="X8" t="n">
-        <v>1545.062936918766</v>
+        <v>1606.635933406614</v>
       </c>
       <c r="Y8" t="n">
-        <v>1154.923604942954</v>
+        <v>1606.635933406614</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4857,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I9" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310614</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625332</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>956.2844025217532</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4914,7 +4914,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
@@ -4923,7 +4923,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4936,49 +4936,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>672.7372331862466</v>
+        <v>331.7238083514195</v>
       </c>
       <c r="C10" t="n">
-        <v>672.7372331862466</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="D10" t="n">
-        <v>522.6205937739109</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="E10" t="n">
-        <v>374.7075001915177</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="F10" t="n">
-        <v>227.8175526936074</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="G10" t="n">
-        <v>227.8175526936074</v>
+        <v>162.7876254235126</v>
       </c>
       <c r="H10" t="n">
-        <v>79.07865455711359</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.715959553122</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096588</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,7 +4987,7 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1439.817372234359</v>
+        <v>1439.817372234358</v>
       </c>
       <c r="T10" t="n">
         <v>1216.838891429094</v>
@@ -4996,16 +4996,16 @@
         <v>1216.838891429094</v>
       </c>
       <c r="V10" t="n">
-        <v>962.1544032232072</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="W10" t="n">
-        <v>672.7372331862466</v>
+        <v>962.1544032232067</v>
       </c>
       <c r="X10" t="n">
-        <v>672.7372331862466</v>
+        <v>734.1648523251894</v>
       </c>
       <c r="Y10" t="n">
-        <v>672.7372331862466</v>
+        <v>513.3722731816592</v>
       </c>
     </row>
     <row r="11">
@@ -5042,22 +5042,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5118,28 +5118,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>315.9123021921482</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>315.9123021921482</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>913.2907898187001</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1540.888753373307</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>734.6461798836</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>565.7099969556931</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>415.5933575433573</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>267.6802639609642</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>267.6802639609642</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832661</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487566</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510507</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854705</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648818</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611857</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138397</v>
+        <v>1198.228921741681</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138397</v>
+        <v>1198.228921741681</v>
       </c>
     </row>
     <row r="14">
@@ -5267,28 +5267,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5297,7 +5297,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5318,7 +5318,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>114.2598873597751</v>
+        <v>150.8995423128889</v>
       </c>
       <c r="K15" t="n">
-        <v>448.1846595309957</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L15" t="n">
-        <v>943.5102657467545</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M15" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373306</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612593</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>632.7243904253733</v>
+        <v>945.402603663004</v>
       </c>
       <c r="C16" t="n">
-        <v>632.7243904253733</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D16" t="n">
-        <v>632.7243904253733</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570816</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2315.933335172869</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2096.33187019581</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1807.256643540008</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1552.572155334121</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1263.15498529716</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1035.165434399143</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>814.372855255613</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,34 +5501,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168618</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5540,22 +5540,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>700.7543264856242</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856242</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>550.6376870732885</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908954</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5716,7 +5716,7 @@
         <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>882.402791315864</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,58 +5744,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111676</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075772</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332384</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014776</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,28 +5823,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>506.2737913123325</v>
       </c>
       <c r="L21" t="n">
-        <v>634.5603720565526</v>
+        <v>506.2737913123325</v>
       </c>
       <c r="M21" t="n">
-        <v>1231.938859683105</v>
+        <v>1103.652278938885</v>
       </c>
       <c r="N21" t="n">
-        <v>1859.536823237711</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>789.7592298206043</v>
+        <v>696.7084350851644</v>
       </c>
       <c r="C22" t="n">
-        <v>620.8230468926974</v>
+        <v>696.7084350851644</v>
       </c>
       <c r="D22" t="n">
-        <v>470.7064074803617</v>
+        <v>546.5917956728287</v>
       </c>
       <c r="E22" t="n">
-        <v>322.7933138979686</v>
+        <v>398.6787020904355</v>
       </c>
       <c r="F22" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797708</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910806</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570814</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279799</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.91737983266</v>
       </c>
       <c r="T22" t="n">
-        <v>2253.366709591041</v>
+        <v>2160.315914855601</v>
       </c>
       <c r="U22" t="n">
-        <v>1964.291482935239</v>
+        <v>1871.240688199799</v>
       </c>
       <c r="V22" t="n">
-        <v>1709.606994729352</v>
+        <v>1616.556199993912</v>
       </c>
       <c r="W22" t="n">
-        <v>1420.189824692392</v>
+        <v>1327.139029956952</v>
       </c>
       <c r="X22" t="n">
-        <v>1192.200273794374</v>
+        <v>1099.149479058934</v>
       </c>
       <c r="Y22" t="n">
-        <v>971.4076946508441</v>
+        <v>878.3568999154041</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111709</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="24">
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191926</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349516</v>
       </c>
       <c r="M24" t="n">
-        <v>1307.627092998424</v>
+        <v>1520.445529061504</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>559.7594328861248</v>
+        <v>835.5837926935571</v>
       </c>
       <c r="C25" t="n">
-        <v>390.823249958218</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D25" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E25" t="n">
-        <v>240.7066105458822</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797749</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235166</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258107</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1755.431557602305</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1466.014387565344</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138411</v>
+        <v>1238.024836667327</v>
       </c>
       <c r="Y25" t="n">
-        <v>741.4078977163646</v>
+        <v>1017.232257523797</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6215,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111715</v>
@@ -6233,10 +6233,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>94.56320294380271</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>244.2098454714574</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>244.2098454714574</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1018.438627038651</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C28" t="n">
-        <v>849.5024441107445</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D28" t="n">
-        <v>699.3858046984087</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2227.361618603201</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V28" t="n">
-        <v>1938.286391947399</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="W28" t="n">
-        <v>1648.869221910438</v>
+        <v>1581.823518162841</v>
       </c>
       <c r="X28" t="n">
-        <v>1420.879671012421</v>
+        <v>1353.833967264824</v>
       </c>
       <c r="Y28" t="n">
-        <v>1200.087091868891</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797182</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6473,13 +6473,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852256</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>429.5088224239596</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>429.5088224239596</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1026.887310050512</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>868.6673633290469</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>699.73118040114</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>549.6145409888043</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1975.033022579363</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1788.515128237795</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1499.097958200834</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1271.108407302817</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1050.315828159287</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6689,10 +6689,10 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192593</v>
@@ -6701,7 +6701,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6786,19 +6786,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,25 +6832,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>868.6673633290469</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>699.73118040114</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6883,25 +6883,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1099.149479058937</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1050.315828159287</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6932,22 @@
         <v>93.8166630479716</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111703</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075796</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -7023,19 +7023,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1103.652278938886</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1731.250242493492</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.306025422647</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>929.3698424947402</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>779.2532030824044</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>631.3401095000113</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7117,28 +7117,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1500.747069396417</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1500.747069396417</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>1279.954490252887</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7160,22 +7160,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168615</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1176.533952578166</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1970.320130882545</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1715.635642676658</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1426.218472639697</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1198.22892174168</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7497,19 +7497,19 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7549,19 +7549,19 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150027</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942658</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G43" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384023</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7640,28 +7640,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,28 +7780,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
         <v>198.094482495415</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -7846,7 +7846,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X46" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y46" t="n">
         <v>1084.076049400516</v>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>138.9393975111055</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>193.3273467878355</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154988</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>162.0073097921335</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>342.9044714621888</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,10 +8313,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>138.9393975111062</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,7 +8544,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>294.8344935184725</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>-4.122674719301154e-12</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -22550,22 +22550,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>222.9506122123679</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>102.172120477576</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247047</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,13 +22595,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>76.45496797391731</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -22610,7 +22610,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22708,10 +22708,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22768,7 +22768,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23425,10 +23425,10 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>133.6938862346303</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>31.71340154579562</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>70.46607471595168</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>117.6820817884498</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>185.0317184880975</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>9.131767663161071</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,7 +24178,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>92.12028678808304</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>32.75273492913479</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.44677382459307</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24607,7 +24607,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>79.42624789262628</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>64.53565828418192</v>
       </c>
     </row>
     <row r="29">
@@ -24844,19 +24844,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,19 +24883,19 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>67.48492792567583</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>46.45968844823051</v>
       </c>
     </row>
     <row r="32">
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,7 +25123,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>170.2393389614409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,13 +25315,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0.3575234924705342</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25372,10 +25372,10 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25603,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>212.7396875474385</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25615,7 +25615,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25789,7 +25789,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>-2.435829443713351e-13</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>-3.197442310920451e-13</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26314,43 +26314,43 @@
         <v>251542.9259350417</v>
       </c>
       <c r="C2" t="n">
-        <v>287364.6194524992</v>
+        <v>287364.6194524993</v>
       </c>
       <c r="D2" t="n">
         <v>287364.6194524991</v>
       </c>
       <c r="E2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="F2" t="n">
         <v>282501.3098915022</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>282501.3098915021</v>
-      </c>
-      <c r="G2" t="n">
-        <v>282501.3098915022</v>
       </c>
       <c r="H2" t="n">
         <v>282501.3098915022</v>
       </c>
       <c r="I2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915022</v>
       </c>
       <c r="J2" t="n">
+        <v>282501.3098915021</v>
+      </c>
+      <c r="K2" t="n">
         <v>282501.3098915022</v>
-      </c>
-      <c r="K2" t="n">
-        <v>282501.3098915021</v>
       </c>
       <c r="L2" t="n">
         <v>282501.3098915021</v>
       </c>
       <c r="M2" t="n">
-        <v>282501.3098915022</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="N2" t="n">
-        <v>282501.3098915023</v>
+        <v>282501.3098915021</v>
       </c>
       <c r="O2" t="n">
-        <v>287364.6194524993</v>
+        <v>287364.6194524992</v>
       </c>
       <c r="P2" t="n">
         <v>287364.6194524991</v>
@@ -26369,28 +26369,28 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245457</v>
+        <v>507485.4416245459</v>
       </c>
       <c r="F3" t="n">
-        <v>1.797263848857256e-10</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5.223048447078327e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099821</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.569592313899193e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363176</v>
+        <v>19427.71799363163</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73493.03182917084</v>
+        <v>73493.03182917082</v>
       </c>
       <c r="C4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="D4" t="n">
-        <v>131909.7268316249</v>
+        <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
+        <v>6897.424496707414</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6897.424496707275</v>
+      </c>
+      <c r="I4" t="n">
         <v>6897.424496707361</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>6897.424496707359</v>
-      </c>
-      <c r="H4" t="n">
-        <v>6897.424496707359</v>
-      </c>
-      <c r="I4" t="n">
-        <v>6897.42449670736</v>
-      </c>
-      <c r="J4" t="n">
-        <v>6897.424496707381</v>
       </c>
       <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="N4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707361</v>
       </c>
       <c r="O4" t="n">
-        <v>14888.28375980084</v>
+        <v>14888.28375980083</v>
       </c>
       <c r="P4" t="n">
-        <v>14888.28375980082</v>
+        <v>14888.28375980083</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.77243984472</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1029639.661909894</v>
+        <v>-1029895.531149304</v>
       </c>
       <c r="C6" t="n">
-        <v>62517.12018102975</v>
+        <v>62517.12018102958</v>
       </c>
       <c r="D6" t="n">
-        <v>62517.12018102933</v>
+        <v>62517.12018102949</v>
       </c>
       <c r="E6" t="n">
-        <v>-333004.086053658</v>
+        <v>-333038.8239790939</v>
       </c>
       <c r="F6" t="n">
-        <v>174481.3555708874</v>
+        <v>174446.617645452</v>
       </c>
       <c r="G6" t="n">
-        <v>174481.3555708879</v>
+        <v>174446.6176454519</v>
       </c>
       <c r="H6" t="n">
-        <v>174481.3555708877</v>
+        <v>174446.6176454516</v>
       </c>
       <c r="I6" t="n">
-        <v>174481.3555708878</v>
+        <v>174446.617645452</v>
       </c>
       <c r="J6" t="n">
-        <v>6876.17776090515</v>
+        <v>6841.43983546985</v>
       </c>
       <c r="K6" t="n">
-        <v>174481.3555708876</v>
+        <v>174446.6176454519</v>
       </c>
       <c r="L6" t="n">
-        <v>174481.3555708877</v>
+        <v>174446.6176454521</v>
       </c>
       <c r="M6" t="n">
-        <v>41874.06184196104</v>
+        <v>41839.32391652529</v>
       </c>
       <c r="N6" t="n">
-        <v>174481.3555708878</v>
+        <v>174446.6176454517</v>
       </c>
       <c r="O6" t="n">
-        <v>149884.5018451512</v>
+        <v>149884.5018451514</v>
       </c>
       <c r="P6" t="n">
         <v>169312.2198387829</v>
@@ -26722,10 +26722,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>934.0648921175391</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26790,7 +26790,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000389</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,46 +26957,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175393</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>433.9106082241346</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.821210263296962e-13</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="E3" t="n">
-        <v>433.9106082241344</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
         <v>2.273736754432321e-13</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-1.491267179245903e-14</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000391</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27385,13 +27385,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>189.2416279777707</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>130.2032170063164</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27439,7 +27439,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27546,10 +27546,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -27591,19 +27591,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>157.2358090453968</v>
       </c>
       <c r="W4" t="n">
-        <v>183.8411527859707</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>19.15656613109553</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>218.2935663670787</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>65.70991267247049</v>
@@ -27670,19 +27670,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,16 +27771,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>88.52707407622472</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>116.7774137234963</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,7 +27789,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
@@ -27834,13 +27834,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>174.2274526594151</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>60.95726652296959</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27919,7 +27919,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,28 +28008,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>36.82607868817448</v>
       </c>
       <c r="I10" t="n">
-        <v>77.24304589468119</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.508245380440106e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28390,7 +28390,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -28515,7 +28515,7 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -28621,7 +28621,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.181774678116199e-12</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28734,7 +28734,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>-1.508245380440106e-12</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -28798,7 +28798,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29341,7 +29341,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,7 +31039,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
         <v>38.45624955336179</v>
@@ -31054,16 +31054,16 @@
         <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N2" t="n">
         <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P2" t="n">
         <v>539.9786897190645</v>
@@ -31075,7 +31075,7 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T2" t="n">
         <v>16.4376645838976</v>
@@ -31124,7 +31124,7 @@
         <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31136,16 +31136,16 @@
         <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
         <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
         <v>256.4624964168761</v>
@@ -31203,7 +31203,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335772</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31230,7 +31230,7 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
         <v>29.35413767523479</v>
@@ -31239,7 +31239,7 @@
         <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730005</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335772</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759587</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024987</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31838,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>362.180468412921</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>370.9642309107746</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>145.7021085929658</v>
+        <v>184.4971006716334</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32312,31 +32312,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>391.605194951448</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420756</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>403.3065760821426</v>
       </c>
       <c r="L21" t="n">
-        <v>194.5189324111251</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071789</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485292</v>
       </c>
       <c r="R21" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T22" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348436</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135343</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817579</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162565</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.646344017568</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159431</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460033</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236512</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651529</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422588</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473075</v>
       </c>
       <c r="M24" t="n">
-        <v>377.6350660745956</v>
+        <v>745.5466476862125</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>616.903357295438</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437246</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742441</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588155</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392047</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,13 +33020,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>100.2764607028594</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
         <v>638.8832749473072</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33047,7 +33047,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>650.5350891770659</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33506,22 +33506,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33743,22 +33743,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>171.5999003578897</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33974,37 +33974,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>263.7590256391499</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34217,22 +34217,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34445,7 +34445,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34457,19 +34457,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>158.8462560123214</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34699,19 +34699,19 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N2" t="n">
         <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P2" t="n">
         <v>308.745693963795</v>
@@ -34720,7 +34720,7 @@
         <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>505.870729793146</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>584.5244463807094</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,13 +34854,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K4" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
@@ -34869,13 +34869,13 @@
         <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35012,13 +35012,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>348.5948060356183</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L6" t="n">
-        <v>640.5848321000389</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820404</v>
@@ -35033,10 +35033,10 @@
         <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308545</v>
+        <v>255.4201198419607</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407338</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457278</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939907</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091745</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N9" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>630.2591755145955</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977094</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870595</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>224.339029438562</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35583,7 +35583,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066234</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
         <v>120.4022572998984</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,16 +35720,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>18.86448192629906</v>
+        <v>57.6594740049667</v>
       </c>
       <c r="K15" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35738,16 +35738,16 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010436</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35960,31 +35960,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>253.0508151715738</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396379</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>265.4651371077836</v>
       </c>
       <c r="L21" t="n">
-        <v>55.9645526312509</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238456</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789219</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191277</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317369</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396422</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367773</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902953</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243165</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678998</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674334</v>
       </c>
       <c r="M24" t="n">
-        <v>235.5010321525773</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>485.5616452121047</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.4845759992802</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,25 +36513,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295347</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060456</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066251</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.7540807028594299</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
         <v>500.328895167433</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36695,7 +36695,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>519.1933770937326</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37154,22 +37154,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37391,22 +37391,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>29.46586643587134</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37625,25 +37625,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>132.4173135558165</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37865,22 +37865,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38093,7 +38093,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38105,19 +38105,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>18.86448192629984</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
